--- a/02_設計/テーブル一覧.xlsx
+++ b/02_設計/テーブル一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kisim\OneDrive\Documents\GitHub\scheduleOnline\02_設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_kyushu\scheduleOnline\02_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCA8AC8-810E-4E16-AEA5-A5367A4FB4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="1800" yWindow="0" windowWidth="10548" windowHeight="12156" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -25,21 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -174,11 +166,27 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TB_SCHEDULE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TB_EVENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント管理テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -420,7 +428,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -432,39 +447,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,7 +471,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -760,14 +768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="11" spans="5:5" ht="58.5">
+    <row r="11" spans="5:5" ht="58.2">
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
@@ -780,14 +788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -833,7 +841,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="31">
+      <c r="M2" s="9">
         <v>44362</v>
       </c>
       <c r="N2" s="7"/>
@@ -1456,6 +1464,102 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="B36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -1468,102 +1572,6 @@
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="B36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1572,1385 +1580,1393 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:43" ht="19.5" thickTop="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
+      <c r="A1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="30" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="30" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="18"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="9" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="9" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="25"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="18"/>
     </row>
     <row r="4" spans="1:43">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="17" t="s">
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="16" t="s">
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
+      <c r="A5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
+      <c r="A6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
     </row>
     <row r="8" spans="1:43">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
     </row>
     <row r="9" spans="1:43">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
     </row>
     <row r="10" spans="1:43">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
     </row>
     <row r="12" spans="1:43">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
     </row>
     <row r="13" spans="1:43">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
     </row>
     <row r="14" spans="1:43">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
     </row>
     <row r="15" spans="1:43">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
     </row>
     <row r="16" spans="1:43">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
     </row>
     <row r="17" spans="1:43">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
     </row>
     <row r="19" spans="1:43">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
-      <c r="AQ19" s="9"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
     </row>
     <row r="21" spans="1:43">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="9"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="9"/>
-      <c r="AQ24" s="9"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="9"/>
-      <c r="AP25" s="9"/>
-      <c r="AQ25" s="9"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
-      <c r="AL27" s="9"/>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="9"/>
-      <c r="AP27" s="9"/>
-      <c r="AQ27" s="9"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
     </row>
     <row r="28" spans="1:43">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="9"/>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="9"/>
-      <c r="AN28" s="9"/>
-      <c r="AO28" s="9"/>
-      <c r="AP28" s="9"/>
-      <c r="AQ28" s="9"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
     </row>
     <row r="29" spans="1:43">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="9"/>
-      <c r="AL29" s="9"/>
-      <c r="AM29" s="9"/>
-      <c r="AN29" s="9"/>
-      <c r="AO29" s="9"/>
-      <c r="AP29" s="9"/>
-      <c r="AQ29" s="9"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
     </row>
     <row r="30" spans="1:43">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9"/>
-      <c r="AK30" s="9"/>
-      <c r="AL30" s="9"/>
-      <c r="AM30" s="9"/>
-      <c r="AN30" s="9"/>
-      <c r="AO30" s="9"/>
-      <c r="AP30" s="9"/>
-      <c r="AQ30" s="9"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="19"/>
     </row>
     <row r="31" spans="1:43">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="9"/>
-      <c r="AL31" s="9"/>
-      <c r="AM31" s="9"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="9"/>
-      <c r="AP31" s="9"/>
-      <c r="AQ31" s="9"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" s="2"/>
@@ -3314,35 +3330,82 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="AC1:AQ1"/>
-    <mergeCell ref="AC2:AQ2"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="U8:AG8"/>
-    <mergeCell ref="AH8:AQ8"/>
-    <mergeCell ref="U6:AG6"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AG7"/>
-    <mergeCell ref="AH7:AQ7"/>
-    <mergeCell ref="AH4:AQ4"/>
-    <mergeCell ref="AH5:AQ5"/>
-    <mergeCell ref="U4:AG4"/>
-    <mergeCell ref="U5:AG5"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U31:AG31"/>
+    <mergeCell ref="AH31:AQ31"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U29:AG29"/>
+    <mergeCell ref="AH29:AQ29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AG30"/>
+    <mergeCell ref="AH30:AQ30"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U27:AG27"/>
+    <mergeCell ref="AH27:AQ27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AG28"/>
+    <mergeCell ref="AH28:AQ28"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U25:AG25"/>
+    <mergeCell ref="AH25:AQ25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AG26"/>
+    <mergeCell ref="AH26:AQ26"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U23:AG23"/>
+    <mergeCell ref="AH23:AQ23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AG24"/>
+    <mergeCell ref="AH24:AQ24"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AG21"/>
+    <mergeCell ref="AH21:AQ21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AG22"/>
+    <mergeCell ref="AH22:AQ22"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AG19"/>
+    <mergeCell ref="AH19:AQ19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AG20"/>
+    <mergeCell ref="AH20:AQ20"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AG17"/>
+    <mergeCell ref="AH17:AQ17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AG18"/>
+    <mergeCell ref="AH18:AQ18"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AG15"/>
+    <mergeCell ref="AH15:AQ15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AG16"/>
+    <mergeCell ref="AH16:AQ16"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AG13"/>
+    <mergeCell ref="AH13:AQ13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AG14"/>
+    <mergeCell ref="AH14:AQ14"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="K11:T11"/>
     <mergeCell ref="U11:AG11"/>
@@ -3359,98 +3422,51 @@
     <mergeCell ref="K10:T10"/>
     <mergeCell ref="U10:AG10"/>
     <mergeCell ref="AH10:AQ10"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AG15"/>
-    <mergeCell ref="AH15:AQ15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AG16"/>
-    <mergeCell ref="AH16:AQ16"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AG13"/>
-    <mergeCell ref="AH13:AQ13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AG14"/>
-    <mergeCell ref="AH14:AQ14"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AG19"/>
-    <mergeCell ref="AH19:AQ19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AG20"/>
-    <mergeCell ref="AH20:AQ20"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AG17"/>
-    <mergeCell ref="AH17:AQ17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AG18"/>
-    <mergeCell ref="AH18:AQ18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U23:AG23"/>
-    <mergeCell ref="AH23:AQ23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AG24"/>
-    <mergeCell ref="AH24:AQ24"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AG21"/>
-    <mergeCell ref="AH21:AQ21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AG22"/>
-    <mergeCell ref="AH22:AQ22"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U27:AG27"/>
-    <mergeCell ref="AH27:AQ27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AG28"/>
-    <mergeCell ref="AH28:AQ28"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U25:AG25"/>
-    <mergeCell ref="AH25:AQ25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AG26"/>
-    <mergeCell ref="AH26:AQ26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U31:AG31"/>
-    <mergeCell ref="AH31:AQ31"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U29:AG29"/>
-    <mergeCell ref="AH29:AQ29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AG30"/>
-    <mergeCell ref="AH30:AQ30"/>
+    <mergeCell ref="U8:AG8"/>
+    <mergeCell ref="AH8:AQ8"/>
+    <mergeCell ref="U6:AG6"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AG7"/>
+    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="AH4:AQ4"/>
+    <mergeCell ref="AH5:AQ5"/>
+    <mergeCell ref="U4:AG4"/>
+    <mergeCell ref="U5:AG5"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="AC1:AQ1"/>
+    <mergeCell ref="AC2:AQ2"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AA1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">

--- a/02_設計/テーブル一覧.xlsx
+++ b/02_設計/テーブル一覧.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_kyushu\scheduleOnline\02_設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kisim\OneDrive\Documents\GitHub\scheduleOnline\02_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCA8AC8-810E-4E16-AEA5-A5367A4FB4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="0" windowWidth="10548" windowHeight="12156" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -26,12 +25,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -166,27 +174,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>TB_SCHEDULE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スケジュールテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TB_EVENT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベント管理テーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -428,14 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -447,15 +432,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,24 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -768,14 +760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="11" spans="5:5" ht="58.2">
+    <row r="11" spans="5:5" ht="58.5">
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
@@ -788,14 +780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -841,7 +833,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="9">
+      <c r="M2" s="31">
         <v>44362</v>
       </c>
       <c r="N2" s="7"/>
@@ -1464,6 +1456,102 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
     <mergeCell ref="B35:L35"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:P35"/>
@@ -1476,102 +1564,6 @@
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="O34:P34"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1580,1393 +1572,1385 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:43" ht="19.5" thickTop="1">
+      <c r="A1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="25" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="18"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="25"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="19" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="19" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="18"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="25"/>
     </row>
     <row r="4" spans="1:43">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="29" t="s">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="20" t="s">
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="20"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="A6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
     </row>
     <row r="8" spans="1:43">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
     </row>
     <row r="9" spans="1:43">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="19"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
     </row>
     <row r="10" spans="1:43">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="19"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="19"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
     </row>
     <row r="12" spans="1:43">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
     </row>
     <row r="13" spans="1:43">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
-      <c r="AQ13" s="19"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
     </row>
     <row r="14" spans="1:43">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="19"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
     </row>
     <row r="15" spans="1:43">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="19"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
     </row>
     <row r="16" spans="1:43">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="19"/>
-      <c r="AQ16" s="19"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
     </row>
     <row r="17" spans="1:43">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
     </row>
     <row r="19" spans="1:43">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="19"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="19"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
     </row>
     <row r="21" spans="1:43">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="19"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="19"/>
-      <c r="AQ22" s="19"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="19"/>
-      <c r="AQ23" s="19"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="19"/>
-      <c r="AO24" s="19"/>
-      <c r="AP24" s="19"/>
-      <c r="AQ24" s="19"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="19"/>
-      <c r="AN26" s="19"/>
-      <c r="AO26" s="19"/>
-      <c r="AP26" s="19"/>
-      <c r="AQ26" s="19"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="19"/>
-      <c r="AN27" s="19"/>
-      <c r="AO27" s="19"/>
-      <c r="AP27" s="19"/>
-      <c r="AQ27" s="19"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
     </row>
     <row r="28" spans="1:43">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="19"/>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="19"/>
-      <c r="AQ28" s="19"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="9"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="9"/>
+      <c r="AQ28" s="9"/>
     </row>
     <row r="29" spans="1:43">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="19"/>
-      <c r="AN29" s="19"/>
-      <c r="AO29" s="19"/>
-      <c r="AP29" s="19"/>
-      <c r="AQ29" s="19"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="9"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9"/>
+      <c r="AP29" s="9"/>
+      <c r="AQ29" s="9"/>
     </row>
     <row r="30" spans="1:43">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="19"/>
-      <c r="AJ30" s="19"/>
-      <c r="AK30" s="19"/>
-      <c r="AL30" s="19"/>
-      <c r="AM30" s="19"/>
-      <c r="AN30" s="19"/>
-      <c r="AO30" s="19"/>
-      <c r="AP30" s="19"/>
-      <c r="AQ30" s="19"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="9"/>
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
+      <c r="AP30" s="9"/>
+      <c r="AQ30" s="9"/>
     </row>
     <row r="31" spans="1:43">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="19"/>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="19"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="19"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="19"/>
-      <c r="AQ31" s="19"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="9"/>
+      <c r="AQ31" s="9"/>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" s="2"/>
@@ -3330,18 +3314,99 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U31:AG31"/>
-    <mergeCell ref="AH31:AQ31"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U29:AG29"/>
-    <mergeCell ref="AH29:AQ29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AG30"/>
-    <mergeCell ref="AH30:AQ30"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="AC1:AQ1"/>
+    <mergeCell ref="AC2:AQ2"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="U8:AG8"/>
+    <mergeCell ref="AH8:AQ8"/>
+    <mergeCell ref="U6:AG6"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AG7"/>
+    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="AH4:AQ4"/>
+    <mergeCell ref="AH5:AQ5"/>
+    <mergeCell ref="U4:AG4"/>
+    <mergeCell ref="U5:AG5"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AG11"/>
+    <mergeCell ref="AH11:AQ11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AG12"/>
+    <mergeCell ref="AH12:AQ12"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AG9"/>
+    <mergeCell ref="AH9:AQ9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AG10"/>
+    <mergeCell ref="AH10:AQ10"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AG15"/>
+    <mergeCell ref="AH15:AQ15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AG16"/>
+    <mergeCell ref="AH16:AQ16"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AG13"/>
+    <mergeCell ref="AH13:AQ13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AG14"/>
+    <mergeCell ref="AH14:AQ14"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AG19"/>
+    <mergeCell ref="AH19:AQ19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AG20"/>
+    <mergeCell ref="AH20:AQ20"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AG17"/>
+    <mergeCell ref="AH17:AQ17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AG18"/>
+    <mergeCell ref="AH18:AQ18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U23:AG23"/>
+    <mergeCell ref="AH23:AQ23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AG24"/>
+    <mergeCell ref="AH24:AQ24"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AG21"/>
+    <mergeCell ref="AH21:AQ21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AG22"/>
+    <mergeCell ref="AH22:AQ22"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="K27:T27"/>
     <mergeCell ref="U27:AG27"/>
@@ -3358,115 +3423,34 @@
     <mergeCell ref="K26:T26"/>
     <mergeCell ref="U26:AG26"/>
     <mergeCell ref="AH26:AQ26"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U23:AG23"/>
-    <mergeCell ref="AH23:AQ23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AG24"/>
-    <mergeCell ref="AH24:AQ24"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AG21"/>
-    <mergeCell ref="AH21:AQ21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AG22"/>
-    <mergeCell ref="AH22:AQ22"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AG19"/>
-    <mergeCell ref="AH19:AQ19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AG20"/>
-    <mergeCell ref="AH20:AQ20"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AG17"/>
-    <mergeCell ref="AH17:AQ17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AG18"/>
-    <mergeCell ref="AH18:AQ18"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AG15"/>
-    <mergeCell ref="AH15:AQ15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AG16"/>
-    <mergeCell ref="AH16:AQ16"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AG13"/>
-    <mergeCell ref="AH13:AQ13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AG14"/>
-    <mergeCell ref="AH14:AQ14"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AG11"/>
-    <mergeCell ref="AH11:AQ11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AG12"/>
-    <mergeCell ref="AH12:AQ12"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AG9"/>
-    <mergeCell ref="AH9:AQ9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AG10"/>
-    <mergeCell ref="AH10:AQ10"/>
-    <mergeCell ref="U8:AG8"/>
-    <mergeCell ref="AH8:AQ8"/>
-    <mergeCell ref="U6:AG6"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AG7"/>
-    <mergeCell ref="AH7:AQ7"/>
-    <mergeCell ref="AH4:AQ4"/>
-    <mergeCell ref="AH5:AQ5"/>
-    <mergeCell ref="U4:AG4"/>
-    <mergeCell ref="U5:AG5"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="AC1:AQ1"/>
-    <mergeCell ref="AC2:AQ2"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U31:AG31"/>
+    <mergeCell ref="AH31:AQ31"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U29:AG29"/>
+    <mergeCell ref="AH29:AQ29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AG30"/>
+    <mergeCell ref="AH30:AQ30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">

--- a/02_設計/テーブル一覧.xlsx
+++ b/02_設計/テーブル一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kisim\OneDrive\Documents\GitHub\scheduleOnline\02_設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_kyushu\scheduleOnline\02_設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82EB1C5-E8EC-4871-8D02-E09BF0A62086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -20,26 +21,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$M$24</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -174,11 +166,77 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TB_EVENT</t>
+  </si>
+  <si>
+    <t>イベント管理テーブル</t>
+  </si>
+  <si>
+    <t>TB_SCHEDULE</t>
+  </si>
+  <si>
+    <t>スケジュールテーブル</t>
+  </si>
+  <si>
+    <t>楢原大輝</t>
+    <rPh sb="0" eb="2">
+      <t>ナラハラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楢原</t>
+    <rPh sb="0" eb="2">
+      <t>ナラハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールテーブル、イベント管理テーブルを新規追加。</t>
+    <rPh sb="22" eb="24">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールテーブルの子テーブル</t>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールを管理するテーブル</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定情報を管理するテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -420,7 +478,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -432,39 +494,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,7 +518,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -760,14 +818,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="11" spans="5:5" ht="58.5">
+    <row r="11" spans="5:5" ht="58.2">
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
@@ -780,14 +838,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -833,7 +893,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="31">
+      <c r="M2" s="9">
         <v>44362</v>
       </c>
       <c r="N2" s="7"/>
@@ -844,7 +904,9 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -855,9 +917,13 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="M3" s="9">
+        <v>44464</v>
+      </c>
       <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16">
@@ -1456,6 +1522,102 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="B36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -1468,102 +1630,6 @@
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="B36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1572,1385 +1638,1403 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:43" ht="19.5" thickTop="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="30" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="30" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="31">
+        <v>44464</v>
+      </c>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="25"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="17"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="9" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="9" t="s">
+      <c r="N2" s="18"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="25"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="17"/>
     </row>
     <row r="4" spans="1:43">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="17" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="16" t="s">
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
+      <c r="A5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
+      <c r="A6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
     </row>
     <row r="8" spans="1:43">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
     </row>
     <row r="9" spans="1:43">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
     </row>
     <row r="10" spans="1:43">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
     </row>
     <row r="12" spans="1:43">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
     </row>
     <row r="13" spans="1:43">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
     </row>
     <row r="14" spans="1:43">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
     </row>
     <row r="15" spans="1:43">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
     </row>
     <row r="16" spans="1:43">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
     </row>
     <row r="17" spans="1:43">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
     </row>
     <row r="19" spans="1:43">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
-      <c r="AQ19" s="9"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
-      <c r="AQ20" s="9"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
     </row>
     <row r="21" spans="1:43">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="9"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="18"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9"/>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="9"/>
-      <c r="AQ24" s="9"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="18"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="9"/>
-      <c r="AP25" s="9"/>
-      <c r="AQ25" s="9"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
-      <c r="AL27" s="9"/>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="9"/>
-      <c r="AP27" s="9"/>
-      <c r="AQ27" s="9"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="18"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="18"/>
     </row>
     <row r="28" spans="1:43">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="9"/>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="9"/>
-      <c r="AN28" s="9"/>
-      <c r="AO28" s="9"/>
-      <c r="AP28" s="9"/>
-      <c r="AQ28" s="9"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
     </row>
     <row r="29" spans="1:43">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="9"/>
-      <c r="AL29" s="9"/>
-      <c r="AM29" s="9"/>
-      <c r="AN29" s="9"/>
-      <c r="AO29" s="9"/>
-      <c r="AP29" s="9"/>
-      <c r="AQ29" s="9"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="18"/>
+      <c r="AO29" s="18"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="18"/>
     </row>
     <row r="30" spans="1:43">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9"/>
-      <c r="AK30" s="9"/>
-      <c r="AL30" s="9"/>
-      <c r="AM30" s="9"/>
-      <c r="AN30" s="9"/>
-      <c r="AO30" s="9"/>
-      <c r="AP30" s="9"/>
-      <c r="AQ30" s="9"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="18"/>
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="18"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="18"/>
+      <c r="AQ30" s="18"/>
     </row>
     <row r="31" spans="1:43">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="9"/>
-      <c r="AL31" s="9"/>
-      <c r="AM31" s="9"/>
-      <c r="AN31" s="9"/>
-      <c r="AO31" s="9"/>
-      <c r="AP31" s="9"/>
-      <c r="AQ31" s="9"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="18"/>
+      <c r="AO31" s="18"/>
+      <c r="AP31" s="18"/>
+      <c r="AQ31" s="18"/>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" s="2"/>
@@ -3314,35 +3398,82 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="AC1:AQ1"/>
-    <mergeCell ref="AC2:AQ2"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="U8:AG8"/>
-    <mergeCell ref="AH8:AQ8"/>
-    <mergeCell ref="U6:AG6"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AG7"/>
-    <mergeCell ref="AH7:AQ7"/>
-    <mergeCell ref="AH4:AQ4"/>
-    <mergeCell ref="AH5:AQ5"/>
-    <mergeCell ref="U4:AG4"/>
-    <mergeCell ref="U5:AG5"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U31:AG31"/>
+    <mergeCell ref="AH31:AQ31"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U29:AG29"/>
+    <mergeCell ref="AH29:AQ29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AG30"/>
+    <mergeCell ref="AH30:AQ30"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U27:AG27"/>
+    <mergeCell ref="AH27:AQ27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AG28"/>
+    <mergeCell ref="AH28:AQ28"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U25:AG25"/>
+    <mergeCell ref="AH25:AQ25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AG26"/>
+    <mergeCell ref="AH26:AQ26"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U23:AG23"/>
+    <mergeCell ref="AH23:AQ23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AG24"/>
+    <mergeCell ref="AH24:AQ24"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AG21"/>
+    <mergeCell ref="AH21:AQ21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AG22"/>
+    <mergeCell ref="AH22:AQ22"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AG19"/>
+    <mergeCell ref="AH19:AQ19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AG20"/>
+    <mergeCell ref="AH20:AQ20"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AG17"/>
+    <mergeCell ref="AH17:AQ17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AG18"/>
+    <mergeCell ref="AH18:AQ18"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AG15"/>
+    <mergeCell ref="AH15:AQ15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AG16"/>
+    <mergeCell ref="AH16:AQ16"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AG13"/>
+    <mergeCell ref="AH13:AQ13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AG14"/>
+    <mergeCell ref="AH14:AQ14"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="K11:T11"/>
     <mergeCell ref="U11:AG11"/>
@@ -3359,98 +3490,51 @@
     <mergeCell ref="K10:T10"/>
     <mergeCell ref="U10:AG10"/>
     <mergeCell ref="AH10:AQ10"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AG15"/>
-    <mergeCell ref="AH15:AQ15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AG16"/>
-    <mergeCell ref="AH16:AQ16"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AG13"/>
-    <mergeCell ref="AH13:AQ13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AG14"/>
-    <mergeCell ref="AH14:AQ14"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AG19"/>
-    <mergeCell ref="AH19:AQ19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AG20"/>
-    <mergeCell ref="AH20:AQ20"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AG17"/>
-    <mergeCell ref="AH17:AQ17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AG18"/>
-    <mergeCell ref="AH18:AQ18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U23:AG23"/>
-    <mergeCell ref="AH23:AQ23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AG24"/>
-    <mergeCell ref="AH24:AQ24"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AG21"/>
-    <mergeCell ref="AH21:AQ21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AG22"/>
-    <mergeCell ref="AH22:AQ22"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U27:AG27"/>
-    <mergeCell ref="AH27:AQ27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AG28"/>
-    <mergeCell ref="AH28:AQ28"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U25:AG25"/>
-    <mergeCell ref="AH25:AQ25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AG26"/>
-    <mergeCell ref="AH26:AQ26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U31:AG31"/>
-    <mergeCell ref="AH31:AQ31"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U29:AG29"/>
-    <mergeCell ref="AH29:AQ29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AG30"/>
-    <mergeCell ref="AH30:AQ30"/>
+    <mergeCell ref="U8:AG8"/>
+    <mergeCell ref="AH8:AQ8"/>
+    <mergeCell ref="U6:AG6"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AG7"/>
+    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="AH4:AQ4"/>
+    <mergeCell ref="AH5:AQ5"/>
+    <mergeCell ref="U4:AG4"/>
+    <mergeCell ref="U5:AG5"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="AC1:AQ1"/>
+    <mergeCell ref="AC2:AQ2"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="AA1:AB1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
